--- a/medicine/Enfance/Stormbreaker_(roman)/Stormbreaker_(roman).xlsx
+++ b/medicine/Enfance/Stormbreaker_(roman)/Stormbreaker_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stormbreaker[1] (titre original : Stormbreaker) est le premier roman de la série Alex Rider écrite par Anthony Horowitz. Il a été publié le 4 septembre 2000 au Royaume-Uni puis le 4 avril 2001 en France. Une adaptation cinématographique, où Alex Pettyfer interprète Alex Rider, est sortie le 21 juillet 2006. Le livre s’est vendu à plus de neuf millions d'exemplaires dans le monde[2]. Le traducteur pour la version française est Annick le Goyat. L'éditeur est Hachette Livre. 
+Stormbreaker (titre original : Stormbreaker) est le premier roman de la série Alex Rider écrite par Anthony Horowitz. Il a été publié le 4 septembre 2000 au Royaume-Uni puis le 4 avril 2001 en France. Une adaptation cinématographique, où Alex Pettyfer interprète Alex Rider, est sortie le 21 juillet 2006. Le livre s’est vendu à plus de neuf millions d'exemplaires dans le monde. Le traducteur pour la version française est Annick le Goyat. L'éditeur est Hachette Livre. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Rider est un jeune orphelin de quatorze ans qui vit chez son oncle et sa "gouvernante" Jack, sa tutrice et meilleure amie. Il mène une vie tranquille jusqu'à la mort brutale de son oncle Ian, qui n'était pourtant qu'un simple banquier. Peu après sa mort, Alex est convoqué à la banque Royale &amp; Générale, où travaillait son oncle, pour y entendre la lecture du testament de ce dernier. C'est alors qu'Alex découvre que son oncle Ian était en réalité un espion et que la banque Royale &amp; Générale est une plaque tournante du MI6, les services secrets britanniques, qui, malgré son jeune âge, recrutent Alex pour qu'il puisse finir ce qu'avait commencé son oncle : découvrir ce qui se cache derrière le Stormbreaker, un nouvel ordinateur ultra-puissant qui inquiète le MI6. Malgré l'aide de Smithers, qui lui fournira des gadgets d'agent secret, son expérience en karaté et son courage, Alex passera plusieurs fois à deux doigts de la mort. Pourtant, il est bien décidé à ne pas décevoir le MI6. Quand il a été convoqué par la banque Royal&amp;Générale, il a su que son oncle été un agent secret du MI6.Ce derniers a été assassiné par Yassen Gregorovich.se rend compte que les « virus » étudiés par Ian n'étaient pas des virus informatiques, mais des armes biologiques. Alex est détecté et s'échappe presque mais est finalement attrapé et tranquillisé. Quand il revient à lui, Hérod explique à Alex son plan.
 Lorsque Sayle est allé à l'école, il a été victime d'intimidation à cause de son accent et de la couleur de sa peau. Le pire des tyrans n'était autre que le futur Premier ministre, ce qui l'a conduit à mépriser les enfants anglais en général. En conséquence, Sayle envisage de se venger du Premier ministre et de la Grande-Bretagne avec sa « blague du poisson d'avril » ; lorsque les ordinateurs seront activés par le Premier ministre, le virus, une puissante souche de variole, sera libéré dans chaque école du pays, tuant tous les écoliers et enseignants d'Angleterre ainsi que ceux d'Écosse, du Pays de Galles et d'Irlande du Nord.
@@ -547,7 +561,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Rider apprend que son oncle, Ian Rider, a été tué dans un accident de voiture. À l'insu d'Alex et de sa gouvernante, Jack Starbright, la position d'Ian en tant que "banquier" était en fait une couverture pour son rôle d'agent du MI6. Alex devient méfiant lorsqu'on lui dit que Ian ne portait pas sa ceinture de sécurité et découvre que le bureau de Ian a été vidé. Il trouve la voiture de son oncle dans un chantier de démolition et découvre que son oncle a été assassiné. Après s'être presque échappé d'un broyeur de voiture, Alex est invité à rendre visite aux anciens employeurs de Ian, une banque appelée "Royal &amp; General". Il fait irruption dans le bureau de Ian, découvrant la preuve de la double vie de son oncle avant qu'il ne soit assommé.
 Au réveil, Alex rencontre le chef du MI6 Alan Blunt et son adjoint, Mme Jones. Ils révèlent la vérité sur la carrière de son oncle et expliquent qu'ils ont envoyé Ian enquêter sur Herod Sayle, un riche homme d'affaires Libanais qui a développé un nouvel ordinateur révolutionnaire, le Stormbreaker. Sayle prévoit de donner un Stormbreaker gratuit à chaque école secondaire du Royaume-Uni, accompagné d'une grande cérémonie d'activation au Science Museum , soi-disant en guise de remerciement pour le pays qui l'a accueilli lorsqu'il était enfant. Dans sa dernière communication avec eux, Ian avait averti le MI6 que les Stormbreakers ne pouvaient pas être autorisés à quitter l'usine de fabrication de Sayle, mais avant qu'il ne puisse s'expliquer, il a été assassiné par Yassen Gregorovich, un tueur professionnel apparemment employé par Sayle, à son retour à Londres .
